--- a/VISA Marriott 2017.xlsx
+++ b/VISA Marriott 2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
@@ -66,9 +66,6 @@
     <t>FARM GUADALAJARA 269</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>AGOURA HILLS STADIUM 8</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
   </si>
   <si>
     <t>VALLARTA SUPERMARK</t>
-  </si>
-  <si>
-    <t>Memo</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -463,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +750,7 @@
         <v>-24.49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -776,423 +767,256 @@
         <v>1709.52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>42783</v>
+      </c>
+      <c r="C18" s="5">
+        <v>42785</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>42784</v>
+      </c>
+      <c r="C19" s="5">
+        <v>42786</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="3">
+        <v>42800</v>
+      </c>
+      <c r="C21" s="3">
+        <v>42800</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>166.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42805</v>
+      </c>
+      <c r="C22" s="5">
+        <v>42806</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>42806</v>
+      </c>
+      <c r="C23" s="5">
+        <v>42806</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-69.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42807</v>
+      </c>
+      <c r="C24" s="5">
+        <v>42808</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42807</v>
+      </c>
+      <c r="C25" s="5">
+        <v>42808</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42807</v>
+      </c>
+      <c r="C26" s="5">
+        <v>42813</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5">
+        <v>42807</v>
+      </c>
+      <c r="C27" s="5">
+        <v>42813</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42808</v>
+      </c>
+      <c r="C28" s="5">
+        <v>42809</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42808</v>
+      </c>
+      <c r="C29" s="5">
+        <v>42813</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42811</v>
+      </c>
+      <c r="C30" s="5">
+        <v>42813</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42827</v>
+      </c>
+      <c r="C32" s="5">
+        <v>42828</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-60.61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5">
         <v>42831</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C33" s="5">
         <v>42831</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="E33" s="4">
         <v>18.05</v>
       </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>42827</v>
-      </c>
-      <c r="C21" s="1">
-        <v>42828</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>-60.61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1">
-        <v>42811</v>
-      </c>
-      <c r="C22" s="1">
-        <v>42813</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>-8.5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>42808</v>
-      </c>
-      <c r="C23" s="1">
-        <v>42813</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>2.95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1">
-        <v>42808</v>
-      </c>
-      <c r="C24" s="1">
-        <v>42809</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>-2.95</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>42807</v>
-      </c>
-      <c r="C25" s="1">
-        <v>42813</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25">
-        <v>4.95</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1">
-        <v>42807</v>
-      </c>
-      <c r="C26" s="1">
-        <v>42813</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>4.95</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>42807</v>
-      </c>
-      <c r="C27" s="1">
-        <v>42808</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>-4.95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1">
-        <v>42807</v>
-      </c>
-      <c r="C28" s="1">
-        <v>42808</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>-4.95</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1">
-        <v>42806</v>
-      </c>
-      <c r="C29" s="1">
-        <v>42806</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29">
-        <v>-69.5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1">
-        <v>42805</v>
-      </c>
-      <c r="C30" s="1">
-        <v>42806</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30">
-        <v>-5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1">
-        <v>42800</v>
-      </c>
-      <c r="C31" s="1">
-        <v>42800</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>166.02</v>
-      </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="1">
-        <v>42784</v>
-      </c>
-      <c r="C32" s="1">
-        <v>42786</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>-19.5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1">
-        <v>42783</v>
-      </c>
-      <c r="C33" s="1">
-        <v>42785</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>-11.4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1">
-        <v>42772</v>
-      </c>
-      <c r="C34" s="1">
-        <v>42772</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>1709.52</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1">
-        <v>42771</v>
-      </c>
-      <c r="C35" s="1">
-        <v>42772</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>-85.21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="1">
-        <v>42771</v>
-      </c>
-      <c r="C36" s="1">
-        <v>42772</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>-24.49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:G16">
-    <sortCondition ref="B1:B16"/>
+  <sortState ref="A19:E35">
+    <sortCondition ref="B19:B35"/>
+    <sortCondition ref="E19:E35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VISA Marriott 2017.xlsx
+++ b/VISA Marriott 2017.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizk\Documents\_Personal\Recon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="-15" windowWidth="9375" windowHeight="8475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="6864"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>Type</t>
   </si>
@@ -88,6 +93,27 @@
   </si>
   <si>
     <t>VALLARTA SUPERMARK</t>
+  </si>
+  <si>
+    <t>EXOTIC THAI CAFE</t>
+  </si>
+  <si>
+    <t>EAST COAST PIZZA CO</t>
+  </si>
+  <si>
+    <t>VAN NUYS AIRPORT PARKING</t>
+  </si>
+  <si>
+    <t>STARBUCKS MARINA CABOS</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>WWW COSTCO COM</t>
+  </si>
+  <si>
+    <t>PRESTIGE MEDICAL ASSOCIA</t>
   </si>
 </sst>
 </file>
@@ -163,6 +189,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -210,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,20 +483,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -505,7 +534,7 @@
         <v>-196.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -526,7 +555,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -547,7 +576,7 @@
         <v>-531.19999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -568,7 +597,7 @@
         <v>-20.575056011949215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -589,7 +618,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -610,7 +639,7 @@
         <v>-353.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -627,7 +656,7 @@
         <v>301.97000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -644,7 +673,7 @@
         <v>-160.97999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -661,7 +690,7 @@
         <v>-963.19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -678,7 +707,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +724,7 @@
         <v>-31.42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -712,11 +741,11 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -733,7 +762,7 @@
         <v>-85.21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -750,7 +779,7 @@
         <v>-24.49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -767,7 +796,7 @@
         <v>1709.52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -784,7 +813,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -801,11 +830,11 @@
         <v>-19.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -822,7 +851,7 @@
         <v>166.02</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -839,7 +868,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -856,7 +885,7 @@
         <v>-69.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -873,7 +902,7 @@
         <v>-4.95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -890,7 +919,7 @@
         <v>-4.95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -907,7 +936,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -924,7 +953,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -941,7 +970,7 @@
         <v>-2.95</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -958,7 +987,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -975,11 +1004,11 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1025,7 @@
         <v>-60.61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -1011,6 +1040,167 @@
       </c>
       <c r="E33" s="4">
         <v>18.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5">
+        <v>42838</v>
+      </c>
+      <c r="C34" s="5">
+        <v>42839</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4">
+        <v>-31.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5">
+        <v>42842</v>
+      </c>
+      <c r="C35" s="5">
+        <v>42843</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5">
+        <v>42857</v>
+      </c>
+      <c r="C37" s="5">
+        <v>42858</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="4">
+        <v>-70.739999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42860</v>
+      </c>
+      <c r="C38" s="5">
+        <v>42860</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4">
+        <v>156.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5">
+        <v>42860</v>
+      </c>
+      <c r="C39" s="5">
+        <v>42863</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42866</v>
+      </c>
+      <c r="C40" s="5">
+        <v>42869</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="4">
+        <v>-22.43</v>
+      </c>
+      <c r="F40" s="4">
+        <f>420/E40</f>
+        <v>-18.724921979491754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5">
+        <v>42869</v>
+      </c>
+      <c r="C41" s="5">
+        <v>42870</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="4">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5">
+        <v>42869</v>
+      </c>
+      <c r="C42" s="5">
+        <v>42871</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-9.51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42870</v>
+      </c>
+      <c r="C43" s="5">
+        <v>42871</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-11.73</v>
       </c>
     </row>
   </sheetData>
@@ -1019,6 +1209,7 @@
     <sortCondition ref="E19:E35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1028,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1040,8 +1231,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="82ad3a63-90ad-4a46-a3cb-757f4658e205" origin="userSelected">
+  <element uid="768aceb2-b366-4b48-827b-e820edc548bd" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE34AFCB-20F8-4BBA-B48E-E19C919A15D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VISA Marriott 2017.xlsx
+++ b/VISA Marriott 2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
     <t>Type</t>
   </si>
@@ -114,6 +114,57 @@
   </si>
   <si>
     <t>PRESTIGE MEDICAL ASSOCIA</t>
+  </si>
+  <si>
+    <t>SOUTH PHILLY BAR AND GRIL</t>
+  </si>
+  <si>
+    <t>TOP NAILS SPA</t>
+  </si>
+  <si>
+    <t>WESTLAKE GYN</t>
+  </si>
+  <si>
+    <t>REST SAN ANGEL INN</t>
+  </si>
+  <si>
+    <t>MCDONALD'S F12323</t>
+  </si>
+  <si>
+    <t>LAXSHUTTLETIX.COM</t>
+  </si>
+  <si>
+    <t>REST CORAL CUERNAVACA</t>
+  </si>
+  <si>
+    <t>TAQUERIA COPACABANA I</t>
+  </si>
+  <si>
+    <t>GOMART RODASA</t>
+  </si>
+  <si>
+    <t>STARBUCKS APTO DUFRY</t>
+  </si>
+  <si>
+    <t>CHEVRON 0096919</t>
+  </si>
+  <si>
+    <t>TACO BELL #3543</t>
+  </si>
+  <si>
+    <t>TERRACE CAFE  11272796</t>
+  </si>
+  <si>
+    <t>SHARKYS- NEWBURY PARK</t>
+  </si>
+  <si>
+    <t>ANNUAL MEMBERSHIP FEE</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>fx</t>
   </si>
 </sst>
 </file>
@@ -150,12 +201,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,6 +236,8 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,10 +1262,544 @@
         <v>-11.73</v>
       </c>
     </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3">
+        <v>42880</v>
+      </c>
+      <c r="C44" s="3">
+        <v>42884</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>42892</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42892</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>183.58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3">
+        <v>42896</v>
+      </c>
+      <c r="C47" s="3">
+        <v>42898</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3">
+        <v>42900</v>
+      </c>
+      <c r="C48" s="3">
+        <v>42901</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-63.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3">
+        <v>42901</v>
+      </c>
+      <c r="C49" s="3">
+        <v>42902</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2">
+        <v>-29.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3">
+        <v>42901</v>
+      </c>
+      <c r="C50" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-6.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42901</v>
+      </c>
+      <c r="C51" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="2">
+        <v>-55.91</v>
+      </c>
+      <c r="F51" s="2">
+        <f>E51*$I$52</f>
+        <v>-1000.7889999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3">
+        <v>42902</v>
+      </c>
+      <c r="C52" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="2">
+        <v>-6.71</v>
+      </c>
+      <c r="F52" s="2">
+        <f>E52*$I$52</f>
+        <v>-120.10899999999999</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="2">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3">
+        <v>42902</v>
+      </c>
+      <c r="C53" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-11.18</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" ref="F53:F62" si="0">E53*$I$52</f>
+        <v>-200.12199999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3">
+        <v>42902</v>
+      </c>
+      <c r="C54" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="2">
+        <v>-7.77</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>-139.08299999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3">
+        <v>42902</v>
+      </c>
+      <c r="C55" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-38.58</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>-690.58199999999988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3">
+        <v>42902</v>
+      </c>
+      <c r="C56" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="2">
+        <v>-2.52</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>-45.107999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3">
+        <v>42902</v>
+      </c>
+      <c r="C57" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="2">
+        <v>-15.99</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>-286.221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3">
+        <v>42903</v>
+      </c>
+      <c r="C58" s="3">
+        <v>42904</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="2">
+        <v>-25.05</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>-448.39499999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3">
+        <v>42904</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42905</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="2">
+        <v>-6.15</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>-110.08499999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3">
+        <v>42904</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42905</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-36.619999999999997</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>-655.49799999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3">
+        <v>42904</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42906</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="2">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>-147.13800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3">
+        <v>42904</v>
+      </c>
+      <c r="C62" s="3">
+        <v>42905</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-46.57</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>-833.60299999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C63" s="3">
+        <v>42907</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="2">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C64" s="3">
+        <v>42907</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="2">
+        <v>-2.73</v>
+      </c>
+      <c r="F64" s="2">
+        <v>49</v>
+      </c>
+      <c r="G64" s="2">
+        <f>F64/E64</f>
+        <v>-17.948717948717949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C65" s="3">
+        <v>42907</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="2">
+        <v>-7.78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C66" s="3">
+        <v>42906</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-45.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C67" s="3">
+        <v>42907</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="2">
+        <v>-5.97</v>
+      </c>
+      <c r="F67" s="2">
+        <v>107</v>
+      </c>
+      <c r="G67" s="2">
+        <f>F67/E67</f>
+        <v>-17.922948073701843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C68" s="3">
+        <v>42907</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="2">
+        <v>-16.829999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C69" s="3">
+        <v>42908</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="2">
+        <v>-5.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="9">
+        <v>42917</v>
+      </c>
+      <c r="C71" s="9">
+        <v>42918</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="8">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="3">
+        <v>42922</v>
+      </c>
+      <c r="C72" s="3">
+        <v>42922</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2">
+        <v>82.67</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A19:E35">
-    <sortCondition ref="B19:B35"/>
-    <sortCondition ref="E19:E35"/>
+  <sortState ref="A46:E75">
+    <sortCondition ref="B46:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1244,7 +1837,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE34AFCB-20F8-4BBA-B48E-E19C919A15D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A151BCA-48C6-4542-BA89-2873A2570D26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/VISA Marriott 2017.xlsx
+++ b/VISA Marriott 2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>Type</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>fx</t>
+  </si>
+  <si>
+    <t>TRADER JOE'S #196  QPS</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,9 +1800,47 @@
         <v>82.67</v>
       </c>
     </row>
+    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3">
+        <v>42953</v>
+      </c>
+      <c r="C74" s="3">
+        <v>42953</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2">
+        <v>596.67999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3">
+        <v>42960</v>
+      </c>
+      <c r="C75" s="3">
+        <v>42961</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="2">
+        <v>-25.37</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A46:E75">
-    <sortCondition ref="B46:B75"/>
+  <sortState ref="A74:E77">
+    <sortCondition ref="B74:B77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1837,7 +1878,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A151BCA-48C6-4542-BA89-2873A2570D26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125599C2-B92D-41BA-A657-A72C71D5DC54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
